--- a/DataModel.xlsx
+++ b/DataModel.xlsx
@@ -7,11 +7,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DataModel" sheetId="1" r:id="rId1"/>
+    <sheet name="Scripts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -29,6 +29,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Stores all user accounts and their roles_x000D__x000A_</t>
         </r>
@@ -40,6 +41,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Define the roles_x000D__x000A_</t>
         </r>
@@ -51,6 +53,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Lists all system privileges</t>
         </r>
@@ -62,6 +65,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Main record of the day's activity</t>
         </r>
@@ -73,6 +77,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Stores information about construction sites_x000D__x000A_</t>
         </r>
@@ -84,6 +89,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Tracks materials and stock updates_x000D__x000A_</t>
         </r>
@@ -95,6 +101,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Cost tracking and management per site_x000D__x000A_</t>
         </r>
@@ -106,6 +113,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Stores subscription details for different user groups_x000D__x000A_</t>
         </r>
@@ -117,6 +125,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Defines user groups (e.g., a construction company team)_x000D__x000A_</t>
         </r>
@@ -128,6 +137,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Maps users to groups_x000D__x000A_</t>
         </r>
@@ -139,6 +149,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Maps sites to specific groups for access control_x000D__x000A_</t>
         </r>
@@ -150,6 +161,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Maps reports to groups based on privileges_x000D__x000A_</t>
         </r>
@@ -161,6 +173,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Detailed salary breakdown for each activity</t>
         </r>
@@ -172,6 +185,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Dynamic configuration</t>
         </r>
@@ -183,6 +197,7 @@
           <rPr>
             <rFont val="Tahoma"/>
             <sz val="9"/>
+            <scheme val="none"/>
           </rPr>
           <t>RAJI YUVARAJI:_x000D__x000A_Define Priviledge</t>
         </r>
@@ -453,7 +468,28 @@
     <t xml:space="preserve">AS (NoOfPersons * DailyRate) PERSISTED </t>
   </si>
   <si>
-    <t>CREATE TABLE Users (</t>
+    <t>CREATE DATABASE Builders_Guru</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>USE Builders_Guru</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Role_Mst (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RoleID INT PRIMARY KEY IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RoleName VARCHAR(50) UNIQUE -- e.g., 'Super Admin', 'Admin', 'Incharge'</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE User_Mst (</t>
   </si>
   <si>
     <t xml:space="preserve">    UserID INT PRIMARY KEY IDENTITY,</t>
@@ -474,22 +510,10 @@
     <t xml:space="preserve">    CreatedDate DATETIME DEFAULT GETDATE(),</t>
   </si>
   <si>
-    <t xml:space="preserve">    FOREIGN KEY (RoleID) REFERENCES Roles(RoleID)</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>CREATE TABLE Roles (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    RoleID INT PRIMARY KEY IDENTITY,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    RoleName VARCHAR(50) UNIQUE -- e.g., 'Super Admin', 'Admin', 'Incharge'</t>
-  </si>
-  <si>
-    <t>CREATE TABLE Privileges (</t>
+    <t xml:space="preserve">    FOREIGN KEY (RoleID) REFERENCES Role_Mst(RoleID)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Privilege_Mst (</t>
   </si>
   <si>
     <t xml:space="preserve">    PrivilegeID INT PRIMARY KEY IDENTITY,</t>
@@ -513,13 +537,13 @@
     <t xml:space="preserve">    PrivilegeID INT,</t>
   </si>
   <si>
-    <t xml:space="preserve">    FOREIGN KEY (RoleID) REFERENCES Roles(RoleID),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FOREIGN KEY (PrivilegeID) REFERENCES Privileges(PrivilegeID)</t>
-  </si>
-  <si>
-    <t>CREATE TABLE Sites (</t>
+    <t xml:space="preserve">    FOREIGN KEY (RoleID) REFERENCES Role_Mst(RoleID),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (PrivilegeID) REFERENCES Privilege_Mst(PrivilegeID)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Site_Mst (</t>
   </si>
   <si>
     <t xml:space="preserve">    SiteID INT PRIMARY KEY IDENTITY,</t>
@@ -534,7 +558,7 @@
     <t xml:space="preserve">    CreatedBy INT, -- Admin who created</t>
   </si>
   <si>
-    <t xml:space="preserve">    FOREIGN KEY (CreatedBy) REFERENCES Users(UserID)</t>
+    <t xml:space="preserve">    FOREIGN KEY (CreatedBy) REFERENCES User_Mst(UserID)</t>
   </si>
   <si>
     <t>CREATE TABLE DailyActivities (</t>
@@ -549,16 +573,19 @@
     <t xml:space="preserve">    SiteID INT,</t>
   </si>
   <si>
+    <t>GroupID INT,</t>
+  </si>
+  <si>
     <t xml:space="preserve">    ActivityDescription TEXT,</t>
   </si>
   <si>
     <t xml:space="preserve">    ActivityDate DATE,</t>
   </si>
   <si>
-    <t xml:space="preserve">    FOREIGN KEY (InchargeID) REFERENCES Users(UserID),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FOREIGN KEY (SiteID) REFERENCES Sites(SiteID)</t>
+    <t xml:space="preserve">    FOREIGN KEY (InchargeID) REFERENCES User_Mst(UserID),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (SiteID) REFERENCES Site_Mst(SiteID)</t>
   </si>
   <si>
     <t>CREATE TABLE MaterialStock (</t>
@@ -582,10 +609,10 @@
     <t xml:space="preserve">    UpdatedBy INT,</t>
   </si>
   <si>
-    <t xml:space="preserve">    FOREIGN KEY (SiteID) REFERENCES Sites(SiteID),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FOREIGN KEY (UpdatedBy) REFERENCES Users(UserID)</t>
+    <t xml:space="preserve">    FOREIGN KEY (SiteID) REFERENCES Site_Mst(SiteID),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (UpdatedBy) REFERENCES User_Mst(UserID)</t>
   </si>
   <si>
     <t>CREATE TABLE CostManagement (</t>
@@ -604,6 +631,120 @@
   </si>
   <si>
     <t xml:space="preserve">    CreatedBy INT,</t>
+  </si>
+  <si>
+    <t>CREATE TABLE SalaryLevels (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SalaryLevelID INT PRIMARY KEY IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LevelName NVARCHAR(50) NOT NULL,   -- e.g., "Level 1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DailyRate DECIMAL(10, 2) NOT NULL, -- e.g., 100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CreatedDate DATETIME DEFAULT GETDATE()</t>
+  </si>
+  <si>
+    <t>CREATE TABLE DailyActivitySalaries (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DailySalaryID INT PRIMARY KEY IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ActivityID INT FOREIGN KEY REFERENCES DailyActivities(ActivityID),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SalaryLevelID INT FOREIGN KEY REFERENCES SalaryLevels(SalaryLevelID),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NoOfPersons INT NOT NULL,                           -- user input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DailyRate DECIMAL(10, 2) NOT NULL,                  -- fetched from SalaryLevels at time of entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TotalAmount AS (NoOfPersons * DailyRate) PERSISTED  -- calculated</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Reports (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReportID INT PRIMARY KEY IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UserID INT FOREIGN KEY REFERENCES User_Mst(UserID),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReportType NVARCHAR(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GeneratedDate DATETIME DEFAULT GETDATE()</t>
+  </si>
+  <si>
+    <t>-- SUBSCRIPTIONS TABLE</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Subscriptions (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SubscriptionID INT PRIMARY KEY IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GroupID INT FOREIGN KEY REFERENCES UserGroups(GroupID),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PlanType NVARCHAR(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    StartDate DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EndDate DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Status NVARCHAR(20) NOT NULL</t>
+  </si>
+  <si>
+    <t>CREATE TABLE UserGroups (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GroupID INT PRIMARY KEY IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GroupName NVARCHAR(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CreatedBy INT FOREIGN KEY REFERENCES User_Mst(UserID)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE GroupMembers (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GroupMemberID INT PRIMARY KEY IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UserID INT FOREIGN KEY REFERENCES User_Mst(UserID)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE GroupSites (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GroupSiteID INT PRIMARY KEY IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SiteID INT FOREIGN KEY REFERENCES Site_Mst(SiteID)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE GroupReports (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GroupReportID INT PRIMARY KEY IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReportID INT FOREIGN KEY REFERENCES Reports(ReportID)</t>
   </si>
 </sst>
 </file>
@@ -626,7 +767,6 @@
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -637,52 +777,8 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -731,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,32 +851,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,7 +1158,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="E1">
+    <sheetView workbookViewId="0" topLeftCell="E1">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1331,12 +1411,12 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16">
       <c r="B16" s="4" t="s">
@@ -1357,16 +1437,16 @@
       <c r="I16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="12"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="4" t="s">
@@ -1383,16 +1463,16 @@
         <v>16</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="12"/>
+      <c r="P17" s="4"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="s">
@@ -1409,16 +1489,16 @@
         <v>11</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="12"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="s">
@@ -1435,14 +1515,14 @@
         <v>16</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="4" t="s">
@@ -1502,17 +1582,17 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-      <c r="M26" s="9" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="M26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="11"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27">
       <c r="B27" s="4" t="s">
@@ -1524,25 +1604,25 @@
       <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="12"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28">
       <c r="B28" s="4" t="s">
@@ -1552,21 +1632,21 @@
         <v>16</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="M28" s="12" t="s">
+      <c r="I28" s="4"/>
+      <c r="M28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O28" s="13"/>
-      <c r="P28" s="14"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="8"/>
     </row>
     <row r="29">
       <c r="B29" s="4" t="s">
@@ -1576,21 +1656,21 @@
         <v>33</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="M29" s="12" t="s">
+      <c r="I29" s="4"/>
+      <c r="M29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
     </row>
     <row r="30">
       <c r="B30" s="4" t="s">
@@ -1600,13 +1680,13 @@
         <v>48</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31">
       <c r="B31" s="4" t="s">
@@ -1616,13 +1696,13 @@
         <v>55</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32">
       <c r="B32" s="4" t="s">
@@ -1634,181 +1714,181 @@
       <c r="D32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="M32" s="9" t="s">
+      <c r="I32" s="4"/>
+      <c r="M32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="11"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33">
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="N33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="12" t="s">
+      <c r="O33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P33" s="12"/>
+      <c r="P33" s="4"/>
     </row>
     <row r="34">
-      <c r="M34" s="12" t="s">
+      <c r="M34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="8"/>
     </row>
     <row r="35">
-      <c r="M35" s="12" t="s">
+      <c r="M35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="N35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="14"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="8"/>
     </row>
     <row r="39">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="G39" s="9" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="G39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="M39" s="15" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="M39" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="17"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
     </row>
     <row r="40">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="N40" s="18" t="s">
+      <c r="N40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O40" s="18" t="s">
+      <c r="O40" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P40" s="18"/>
+      <c r="P40" s="12"/>
     </row>
     <row r="41">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="G41" s="12" t="s">
+      <c r="D41" s="4"/>
+      <c r="G41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="M41" s="18" t="s">
+      <c r="I41" s="4"/>
+      <c r="M41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="15"/>
-      <c r="P41" s="17"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="11"/>
     </row>
     <row r="42">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="G42" s="12" t="s">
+      <c r="D42" s="4"/>
+      <c r="G42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="M42" s="18" t="s">
+      <c r="I42" s="4"/>
+      <c r="M42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="N42" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="17"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="11"/>
     </row>
     <row r="43">
-      <c r="M43" s="18" t="s">
+      <c r="M43" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="18" t="s">
+      <c r="N43" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="15" t="s">
+      <c r="O43" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="P43" s="17"/>
+      <c r="P43" s="11"/>
     </row>
     <row r="44">
-      <c r="M44" s="18" t="s">
+      <c r="M44" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N44" s="18" t="s">
+      <c r="N44" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O44" s="15" t="s">
+      <c r="O44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P44" s="17"/>
+      <c r="P44" s="11"/>
     </row>
     <row r="45">
-      <c r="M45" s="18" t="s">
+      <c r="M45" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1848,318 +1928,213 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A58">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A31">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.85547" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.85547" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
@@ -2169,17 +2144,467 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
